--- a/Laplace.xlsx
+++ b/Laplace.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dalto\Documents\School\SENG 438\seng438-a5-Racheld3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAA5600-821C-40A2-A6E8-33F22B98DDA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D66D82A-F6C7-4D85-918E-91CA8FA395D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4050" yWindow="1650" windowWidth="17280" windowHeight="8970" xr2:uid="{6C340180-5E97-4161-B60F-2F7A3F296214}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6C340180-5E97-4161-B60F-2F7A3F296214}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
